--- a/BackTest/2019-10-26 BackTest BHP.xlsx
+++ b/BackTest/2019-10-26 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1175</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1175</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1175</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1175</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1175</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1175</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1175</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1175</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1175</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1175</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1175</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1175</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1175</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1175</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1175</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1175</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1175</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1175</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1175</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1175</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1175</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1175</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1175</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1175</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1175</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1175</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1175</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1175</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1175</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1175</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1175</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1175</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1175</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1175</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1175</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1175</v>
@@ -1912,7 +1912,7 @@
         <v>0.1311</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1175</v>
@@ -1949,7 +1949,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1178</v>
@@ -1990,7 +1990,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1175</v>
@@ -2031,7 +2031,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1175</v>
@@ -2072,7 +2072,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1175</v>
@@ -2113,7 +2113,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>1175</v>
@@ -2154,7 +2154,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1175</v>
@@ -2195,7 +2195,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1175</v>
@@ -2236,7 +2236,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1175</v>
@@ -2277,7 +2277,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1175</v>
@@ -2318,7 +2318,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1175</v>
@@ -2359,7 +2359,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1175</v>
@@ -2400,7 +2400,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>1175</v>
@@ -2441,7 +2441,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>1175</v>
@@ -2482,7 +2482,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1175</v>
@@ -2523,7 +2523,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1175</v>
@@ -2564,7 +2564,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1175</v>
@@ -2605,7 +2605,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1175</v>
@@ -2646,7 +2646,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1175</v>
@@ -2687,7 +2687,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1175</v>
@@ -2728,7 +2728,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1175</v>
@@ -2769,7 +2769,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1175</v>
@@ -2810,7 +2810,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1175</v>
@@ -2851,7 +2851,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1175</v>
@@ -2892,7 +2892,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1175</v>
@@ -2933,7 +2933,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1175</v>
@@ -2974,7 +2974,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>1175</v>
@@ -3015,7 +3015,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1175</v>
@@ -3056,7 +3056,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>1175</v>
@@ -3097,7 +3097,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1175</v>
@@ -3138,7 +3138,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>1175</v>
@@ -3179,7 +3179,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1175</v>
@@ -3220,7 +3220,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>1175</v>
@@ -3261,7 +3261,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>1175</v>
@@ -3302,7 +3302,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>1175</v>
@@ -3343,7 +3343,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>1175</v>
@@ -3384,7 +3384,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>1175</v>
@@ -3425,7 +3425,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>1175</v>
@@ -3466,7 +3466,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1175</v>
@@ -3507,7 +3507,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1175</v>
@@ -3548,7 +3548,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>1175</v>
@@ -3589,7 +3589,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>1175</v>
@@ -3630,7 +3630,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1175</v>
@@ -3671,7 +3671,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>1175</v>
@@ -3712,7 +3712,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>1175</v>
@@ -3753,7 +3753,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>1175</v>
@@ -3794,7 +3794,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>1175</v>
@@ -3835,7 +3835,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>1175</v>
@@ -3876,7 +3876,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>1175</v>
@@ -3917,7 +3917,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>1175</v>
@@ -3958,7 +3958,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1175</v>
@@ -3999,7 +3999,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>1175</v>
@@ -4040,7 +4040,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1175</v>
@@ -4081,7 +4081,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1175</v>
@@ -4122,7 +4122,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1175</v>
@@ -4163,7 +4163,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1175</v>
@@ -4204,7 +4204,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1175</v>
@@ -4245,7 +4245,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1175</v>
@@ -4286,7 +4286,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1175</v>
@@ -4327,7 +4327,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1175</v>
@@ -4368,7 +4368,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1175</v>
@@ -4409,7 +4409,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1175</v>
@@ -4450,7 +4450,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1175</v>
@@ -4491,7 +4491,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1175</v>
@@ -4532,7 +4532,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>1175</v>
@@ -4573,7 +4573,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>1175</v>
@@ -4614,7 +4614,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>1175</v>
@@ -4655,7 +4655,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>1175</v>
@@ -4696,7 +4696,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>1175</v>
@@ -4737,7 +4737,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>1175</v>
@@ -4778,7 +4778,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>1175</v>
@@ -4819,7 +4819,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>1175</v>
@@ -4860,7 +4860,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>1175</v>
@@ -4901,7 +4901,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>1175</v>
@@ -4942,7 +4942,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>1175</v>
@@ -4983,7 +4983,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>1175</v>
@@ -5024,7 +5024,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>1175</v>
@@ -5065,7 +5065,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>1175</v>
@@ -5106,7 +5106,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>1175</v>
@@ -5147,7 +5147,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>1175</v>
@@ -5188,7 +5188,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>1175</v>
@@ -5229,7 +5229,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>1175</v>
@@ -5270,7 +5270,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>1175</v>
@@ -5311,7 +5311,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>1175</v>
@@ -5352,7 +5352,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>1175</v>
@@ -5393,7 +5393,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>1175</v>
@@ -5434,7 +5434,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>1175</v>
@@ -5475,7 +5475,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>1175</v>
@@ -5516,7 +5516,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>1175</v>
@@ -5557,7 +5557,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>1175</v>
@@ -5598,7 +5598,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>1175</v>
@@ -5639,7 +5639,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>1175</v>
@@ -5680,7 +5680,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>1175</v>
@@ -5721,7 +5721,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>1175</v>
@@ -5762,7 +5762,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>1175</v>
@@ -5803,7 +5803,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>1175</v>
@@ -5844,7 +5844,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>1175</v>
@@ -5885,7 +5885,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>1175</v>
@@ -5926,7 +5926,7 @@
         <v>-9.168900000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>1175</v>
@@ -5967,7 +5967,7 @@
         <v>2.345021899999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>1175</v>
@@ -6008,7 +6008,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>1178</v>
@@ -6049,7 +6049,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>1175</v>
@@ -6090,7 +6090,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>1175</v>
@@ -6131,7 +6131,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>1175</v>
@@ -6172,7 +6172,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>1175</v>
@@ -6213,7 +6213,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>1175</v>
@@ -6254,7 +6254,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>1175</v>
@@ -6295,7 +6295,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>1175</v>
@@ -6336,7 +6336,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>1175</v>
@@ -6377,7 +6377,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>1175</v>
@@ -6418,7 +6418,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>1175</v>
@@ -6459,7 +6459,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>1175</v>
@@ -6500,7 +6500,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>1175</v>
@@ -6541,7 +6541,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>1175</v>
@@ -6582,7 +6582,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>1175</v>
@@ -6623,7 +6623,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>1175</v>
@@ -6664,7 +6664,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>1175</v>
@@ -6705,7 +6705,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>1175</v>
@@ -6746,7 +6746,7 @@
         <v>-4.554978100000001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>1175</v>
@@ -6787,7 +6787,7 @@
         <v>1880.4063219</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>1175</v>
@@ -6828,9 +6828,11 @@
         <v>2230.7763219</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1189</v>
+      </c>
       <c r="J159" t="n">
         <v>1175</v>
       </c>
@@ -7140,11 +7142,9 @@
         <v>83.93432189999967</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>1175</v>
       </c>
@@ -7181,11 +7181,9 @@
         <v>83.93432189999967</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>1175</v>
       </c>
@@ -7222,11 +7220,9 @@
         <v>102.1343218999997</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>1175</v>
       </c>
@@ -7263,11 +7259,9 @@
         <v>101.9343218999997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>1175</v>
       </c>
@@ -7304,11 +7298,9 @@
         <v>102.1072218999997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>1175</v>
       </c>
@@ -7345,11 +7337,9 @@
         <v>104.0072218999997</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>1175</v>
       </c>
@@ -7425,11 +7415,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>1175</v>
       </c>
@@ -7466,11 +7454,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>1175</v>
       </c>
@@ -7507,11 +7493,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>1175</v>
       </c>
@@ -7548,11 +7532,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>1175</v>
       </c>
@@ -7589,11 +7571,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>1175</v>
       </c>
@@ -7630,11 +7610,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>1175</v>
       </c>
@@ -7671,11 +7649,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>1175</v>
       </c>
@@ -7712,11 +7688,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>1175</v>
       </c>
@@ -7792,7 +7766,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>1263</v>
@@ -8067,9 +8041,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1263</v>
+      </c>
       <c r="J190" t="n">
         <v>1175</v>
       </c>
@@ -8106,9 +8082,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1263</v>
+      </c>
       <c r="J191" t="n">
         <v>1175</v>
       </c>
@@ -8145,9 +8123,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1263</v>
+      </c>
       <c r="J192" t="n">
         <v>1175</v>
       </c>
@@ -8184,9 +8164,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1263</v>
+      </c>
       <c r="J193" t="n">
         <v>1175</v>
       </c>
@@ -8223,7 +8205,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>1263</v>
@@ -8264,9 +8246,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1263</v>
+      </c>
       <c r="J195" t="n">
         <v>1175</v>
       </c>
@@ -8303,7 +8287,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>1263</v>
@@ -8344,9 +8328,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1261</v>
+      </c>
       <c r="J197" t="n">
         <v>1175</v>
       </c>
@@ -8383,9 +8369,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1261</v>
+      </c>
       <c r="J198" t="n">
         <v>1175</v>
       </c>
@@ -8422,9 +8410,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1261</v>
+      </c>
       <c r="J199" t="n">
         <v>1175</v>
       </c>
@@ -8461,9 +8451,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1261</v>
+      </c>
       <c r="J200" t="n">
         <v>1175</v>
       </c>
@@ -8500,9 +8492,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1261</v>
+      </c>
       <c r="J201" t="n">
         <v>1175</v>
       </c>
@@ -8539,9 +8533,11 @@
         <v>590.9546471899997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1261</v>
+      </c>
       <c r="J202" t="n">
         <v>1175</v>
       </c>
@@ -8578,9 +8574,11 @@
         <v>585.6546471899998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1274</v>
+      </c>
       <c r="J203" t="n">
         <v>1175</v>
       </c>
@@ -8617,9 +8615,11 @@
         <v>591.5546471899997</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1261</v>
+      </c>
       <c r="J204" t="n">
         <v>1175</v>
       </c>
@@ -8656,9 +8656,11 @@
         <v>600.5546471899997</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1264</v>
+      </c>
       <c r="J205" t="n">
         <v>1175</v>
       </c>
@@ -8734,9 +8736,11 @@
         <v>604.5546471899997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1274</v>
+      </c>
       <c r="J207" t="n">
         <v>1175</v>
       </c>
@@ -17587,7 +17591,7 @@
         <v>3976.84114719</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
@@ -17595,15 +17599,13 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L434" t="n">
-        <v>1.149893617021277</v>
-      </c>
-      <c r="M434" t="n">
-        <v>1.002553191489362</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -17628,11 +17630,17 @@
         <v>5341.24114719</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17661,11 +17669,17 @@
         <v>2872.732047189999</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17694,11 +17708,17 @@
         <v>3298.986347189999</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17727,11 +17747,17 @@
         <v>3296.986347189999</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17760,11 +17786,17 @@
         <v>3296.986347189999</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17793,11 +17825,17 @@
         <v>3319.186347189999</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17826,11 +17864,17 @@
         <v>3313.686347189999</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17859,11 +17903,17 @@
         <v>3330.486347189999</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17895,8 +17945,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17925,11 +17981,17 @@
         <v>3405.81644719</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17961,8 +18023,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17991,11 +18059,17 @@
         <v>3405.81644719</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18024,11 +18098,17 @@
         <v>3405.81644719</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18057,11 +18137,17 @@
         <v>3472.21644719</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18090,11 +18176,17 @@
         <v>3472.21644719</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18123,11 +18215,17 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18156,15 +18254,23 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
+        <v>1.151595744680851</v>
+      </c>
+      <c r="M451" t="n">
+        <v>1.002553191489362</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -18189,7 +18295,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18222,7 +18328,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18255,7 +18361,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18288,7 +18394,7 @@
         <v>2420.29604719</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18321,7 +18427,7 @@
         <v>2420.40714719</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18354,7 +18460,7 @@
         <v>2417.50714719</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18387,7 +18493,7 @@
         <v>2427.15014719</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18420,7 +18526,7 @@
         <v>2427.30614719</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18453,7 +18559,7 @@
         <v>2417.90614719</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18486,7 +18592,7 @@
         <v>2399.40614719</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18519,7 +18625,7 @@
         <v>2152.87534719</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18552,7 +18658,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18585,7 +18691,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18618,7 +18724,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18651,7 +18757,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18816,7 +18922,7 @@
         <v>2152.675324609999</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18849,7 +18955,7 @@
         <v>2152.675324609999</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18882,7 +18988,7 @@
         <v>2152.675324609999</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18915,7 +19021,7 @@
         <v>2256.875324609999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18948,7 +19054,7 @@
         <v>2133.275324609999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18981,7 +19087,7 @@
         <v>2129.375324609999</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19014,7 +19120,7 @@
         <v>2119.075324609999</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19047,7 +19153,7 @@
         <v>2106.175324609999</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19080,7 +19186,7 @@
         <v>2106.175324609999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19113,7 +19219,7 @@
         <v>2086.975324609999</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19146,7 +19252,7 @@
         <v>2086.975324609999</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19179,7 +19285,7 @@
         <v>2086.975324609999</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19212,7 +19318,7 @@
         <v>2100.244524609999</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19245,7 +19351,7 @@
         <v>2071.244524609999</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19278,7 +19384,7 @@
         <v>2071.244524609999</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19311,7 +19417,7 @@
         <v>2071.244524609999</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19377,7 +19483,7 @@
         <v>2086.844524609999</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19476,7 +19582,7 @@
         <v>2079.544524609999</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19509,7 +19615,7 @@
         <v>2067.244524609999</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19608,7 +19714,7 @@
         <v>2086.744524609999</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19641,7 +19747,7 @@
         <v>2086.744524609999</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19674,7 +19780,7 @@
         <v>2068.044524609999</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19740,7 +19846,7 @@
         <v>2275.793024609999</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19773,7 +19879,7 @@
         <v>2275.793024609999</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19872,7 +19978,7 @@
         <v>2275.793024609999</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19905,7 +20011,7 @@
         <v>2275.793024609999</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19938,7 +20044,7 @@
         <v>2275.793024609999</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -23238,7 +23344,7 @@
         <v>2317.88232461</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23271,7 +23377,7 @@
         <v>2317.88232461</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23304,7 +23410,7 @@
         <v>2317.88232461</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23337,7 +23443,7 @@
         <v>2317.88232461</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23370,7 +23476,7 @@
         <v>2317.88232461</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23667,7 +23773,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23700,7 +23806,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23733,7 +23839,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23766,7 +23872,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23799,7 +23905,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23832,7 +23938,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23865,7 +23971,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23898,7 +24004,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23931,7 +24037,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23964,7 +24070,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23997,7 +24103,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24030,7 +24136,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24063,7 +24169,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24096,7 +24202,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24129,7 +24235,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24162,7 +24268,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24195,7 +24301,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24228,7 +24334,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24261,7 +24367,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24294,7 +24400,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24327,7 +24433,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24360,7 +24466,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24393,7 +24499,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24426,7 +24532,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24459,7 +24565,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24492,7 +24598,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24525,7 +24631,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24558,7 +24664,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24591,7 +24697,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24624,7 +24730,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24657,7 +24763,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24690,7 +24796,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24723,7 +24829,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24756,7 +24862,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24789,7 +24895,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24822,7 +24928,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24855,7 +24961,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24888,7 +24994,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24921,7 +25027,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24954,7 +25060,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24987,7 +25093,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25020,7 +25126,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25053,7 +25159,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25086,7 +25192,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25119,7 +25225,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25152,7 +25258,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25185,7 +25291,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25218,7 +25324,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25251,7 +25357,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25284,7 +25390,7 @@
         <v>2330.38732461</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25317,7 +25423,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25350,7 +25456,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25383,7 +25489,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25416,7 +25522,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25449,7 +25555,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25482,7 +25588,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25515,7 +25621,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25548,7 +25654,7 @@
         <v>2397.01972461</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25581,7 +25687,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25614,7 +25720,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25647,7 +25753,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25680,7 +25786,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25713,7 +25819,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25746,7 +25852,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25779,7 +25885,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25812,7 +25918,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25845,7 +25951,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25878,7 +25984,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25911,7 +26017,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25944,7 +26050,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25977,7 +26083,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26010,7 +26116,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26043,7 +26149,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26076,7 +26182,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26109,7 +26215,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26142,7 +26248,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26175,7 +26281,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26208,7 +26314,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26241,7 +26347,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26274,7 +26380,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26307,7 +26413,7 @@
         <v>2384.91972461</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26340,7 +26446,7 @@
         <v>2387.21972461</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26373,7 +26479,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26406,7 +26512,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26439,7 +26545,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26472,7 +26578,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26505,7 +26611,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26538,7 +26644,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26571,7 +26677,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26604,7 +26710,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26637,7 +26743,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26670,7 +26776,7 @@
         <v>2377.11972461</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26703,7 +26809,7 @@
         <v>2393.11972461</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26736,7 +26842,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26769,7 +26875,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26802,7 +26908,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26835,7 +26941,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26868,7 +26974,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26901,7 +27007,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26934,7 +27040,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26967,7 +27073,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27000,7 +27106,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27033,7 +27139,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27066,7 +27172,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27099,7 +27205,7 @@
         <v>2378.31972461</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27132,7 +27238,7 @@
         <v>2374.81972461</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27165,7 +27271,7 @@
         <v>2374.96502461</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27198,7 +27304,7 @@
         <v>2369.16502461</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27231,7 +27337,7 @@
         <v>2384.46502461</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -31334,6 +31440,6 @@
       <c r="M850" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BHP.xlsx
+++ b/BackTest/2019-10-26 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6828,11 +6828,9 @@
         <v>2230.7763219</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>1175</v>
       </c>
@@ -7766,11 +7764,9 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>1175</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
@@ -7815,13 +7811,15 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.069893617021277</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.002553191489362</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7846,17 +7844,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7888,14 +7880,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7927,14 +7913,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7966,14 +7946,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -8005,14 +7979,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -8041,19 +8009,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8082,19 +8042,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J191" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8123,19 +8075,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8164,19 +8108,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8205,19 +8141,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8246,19 +8174,11 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8287,19 +8207,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1263</v>
-      </c>
-      <c r="J196" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8328,19 +8240,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8369,19 +8273,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8410,19 +8306,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8451,19 +8339,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J200" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8492,19 +8372,11 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J201" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8533,19 +8405,11 @@
         <v>590.9546471899997</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8574,19 +8438,11 @@
         <v>585.6546471899998</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8615,19 +8471,11 @@
         <v>591.5546471899997</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1261</v>
-      </c>
-      <c r="J204" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8656,19 +8504,11 @@
         <v>600.5546471899997</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1264</v>
-      </c>
-      <c r="J205" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8697,17 +8537,11 @@
         <v>607.0546471899997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8736,19 +8570,11 @@
         <v>604.5546471899997</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J207" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8780,14 +8606,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8819,14 +8639,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8858,14 +8672,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8897,14 +8705,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8936,14 +8738,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8975,14 +8771,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -9014,14 +8804,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -9053,14 +8837,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9092,14 +8870,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9131,14 +8903,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9170,14 +8936,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9209,14 +8969,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9248,14 +9002,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9287,14 +9035,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9326,14 +9068,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9365,14 +9101,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9404,14 +9134,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9443,14 +9167,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9482,14 +9200,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9521,14 +9233,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9560,14 +9266,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9599,14 +9299,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9638,14 +9332,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9677,14 +9365,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9716,14 +9398,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9755,14 +9431,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9794,14 +9464,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9833,14 +9497,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9872,14 +9530,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9911,14 +9563,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9950,14 +9596,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9989,14 +9629,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -10028,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -10067,14 +9695,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10106,14 +9728,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10145,14 +9761,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10184,14 +9794,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10223,14 +9827,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10262,14 +9860,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10301,14 +9893,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10340,14 +9926,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10379,14 +9959,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10418,14 +9992,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10457,14 +10025,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10496,14 +10058,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10535,14 +10091,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10574,14 +10124,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10613,14 +10157,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10652,14 +10190,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10691,14 +10223,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10730,14 +10256,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10769,14 +10289,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10808,14 +10322,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10847,14 +10355,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10886,14 +10388,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10925,14 +10421,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10964,14 +10454,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -11003,14 +10487,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -11042,14 +10520,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -11081,14 +10553,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11120,14 +10586,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11159,14 +10619,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11198,14 +10652,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11237,14 +10685,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11276,14 +10718,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11315,14 +10751,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11354,14 +10784,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11393,14 +10817,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11432,14 +10850,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11471,14 +10883,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11510,14 +10916,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11549,14 +10949,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11588,14 +10982,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11627,14 +11015,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11666,14 +11048,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11705,14 +11081,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11744,14 +11114,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11783,14 +11147,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11822,14 +11180,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11861,14 +11213,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11900,14 +11246,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11939,14 +11279,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11978,14 +11312,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -12017,14 +11345,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -12056,14 +11378,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -12095,14 +11411,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12134,14 +11444,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12173,14 +11477,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12212,14 +11510,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12251,14 +11543,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12290,14 +11576,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12329,14 +11609,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12368,14 +11642,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12407,14 +11675,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12446,14 +11708,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12485,14 +11741,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12524,14 +11774,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12563,14 +11807,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12602,14 +11840,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12641,14 +11873,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12680,14 +11906,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12719,14 +11939,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12758,14 +11972,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12797,14 +12005,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12836,14 +12038,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12875,14 +12071,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12914,14 +12104,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12953,14 +12137,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12992,14 +12170,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -13031,14 +12203,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -13070,14 +12236,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -13109,14 +12269,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13148,14 +12302,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13187,14 +12335,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13226,14 +12368,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13265,14 +12401,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13304,14 +12434,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13343,14 +12467,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13382,14 +12500,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13421,14 +12533,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13460,14 +12566,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13499,14 +12599,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13538,14 +12632,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13577,14 +12665,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13616,14 +12698,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13655,14 +12731,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13694,14 +12764,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13733,14 +12797,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13772,14 +12830,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13811,14 +12863,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13850,14 +12896,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13889,14 +12929,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13928,14 +12962,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13967,14 +12995,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -14006,14 +13028,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -14045,14 +13061,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -14084,14 +13094,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -14123,14 +13127,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14162,14 +13160,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14201,14 +13193,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14240,14 +13226,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14279,14 +13259,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14318,14 +13292,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14357,14 +13325,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14396,14 +13358,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14435,14 +13391,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14474,14 +13424,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14513,14 +13457,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14552,14 +13490,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14591,14 +13523,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14630,14 +13556,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14669,14 +13589,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14708,14 +13622,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14747,14 +13655,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14786,14 +13688,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14825,14 +13721,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14864,14 +13754,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14903,14 +13787,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14942,14 +13820,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14981,14 +13853,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -15020,14 +13886,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -15059,14 +13919,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -15098,14 +13952,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15137,14 +13985,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15176,14 +14018,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15215,14 +14051,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15254,14 +14084,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15293,14 +14117,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15332,14 +14150,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15371,14 +14183,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15410,14 +14216,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15449,14 +14249,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15488,14 +14282,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15527,14 +14315,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15566,14 +14348,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15605,14 +14381,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15644,14 +14414,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15683,14 +14447,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15722,14 +14480,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15761,14 +14513,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15800,14 +14546,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15839,14 +14579,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15878,14 +14612,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15917,14 +14645,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15956,14 +14678,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15995,14 +14711,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -16034,14 +14744,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -16073,14 +14777,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16112,14 +14810,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16151,14 +14843,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16190,14 +14876,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16229,14 +14909,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16268,14 +14942,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16307,14 +14975,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16346,14 +15008,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16385,14 +15041,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16424,14 +15074,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16463,14 +15107,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16502,14 +15140,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16541,14 +15173,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16580,14 +15206,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16619,14 +15239,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16658,14 +15272,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16697,14 +15305,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16736,14 +15338,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16775,14 +15371,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16814,14 +15404,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16853,14 +15437,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16892,14 +15470,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16931,14 +15503,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16970,14 +15536,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -17009,14 +15569,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -17048,14 +15602,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -17087,14 +15635,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17126,14 +15668,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17165,14 +15701,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17204,14 +15734,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17243,14 +15767,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17282,14 +15800,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17321,14 +15833,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17360,14 +15866,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17399,14 +15899,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17438,14 +15932,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17477,14 +15965,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17516,14 +15998,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17555,14 +16031,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17594,14 +16064,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17633,14 +16097,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17672,14 +16130,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17711,14 +16163,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17750,14 +16196,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17789,14 +16229,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17828,14 +16262,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17867,14 +16295,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17906,14 +16328,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17945,14 +16361,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17984,14 +16394,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -18023,14 +16427,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18062,14 +16460,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18101,14 +16493,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18140,14 +16526,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18179,14 +16559,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18218,14 +16592,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18254,23 +16622,15 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
-        <v>1.151595744680851</v>
-      </c>
-      <c r="M451" t="n">
-        <v>1.002553191489362</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -18295,7 +16655,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18328,7 +16688,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18361,7 +16721,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18394,7 +16754,7 @@
         <v>2420.29604719</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18427,7 +16787,7 @@
         <v>2420.40714719</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18460,7 +16820,7 @@
         <v>2417.50714719</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18493,7 +16853,7 @@
         <v>2427.15014719</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18526,7 +16886,7 @@
         <v>2427.30614719</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18559,7 +16919,7 @@
         <v>2417.90614719</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18592,7 +16952,7 @@
         <v>2399.40614719</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18625,7 +16985,7 @@
         <v>2152.87534719</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18658,7 +17018,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18691,7 +17051,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18724,7 +17084,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18757,7 +17117,7 @@
         <v>2132.575347189999</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18922,7 +17282,7 @@
         <v>2152.675324609999</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18955,7 +17315,7 @@
         <v>2152.675324609999</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18988,7 +17348,7 @@
         <v>2152.675324609999</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -19021,7 +17381,7 @@
         <v>2256.875324609999</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19054,7 +17414,7 @@
         <v>2133.275324609999</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -19087,7 +17447,7 @@
         <v>2129.375324609999</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19120,7 +17480,7 @@
         <v>2119.075324609999</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19153,7 +17513,7 @@
         <v>2106.175324609999</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19186,7 +17546,7 @@
         <v>2106.175324609999</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19219,7 +17579,7 @@
         <v>2086.975324609999</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19252,7 +17612,7 @@
         <v>2086.975324609999</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19285,7 +17645,7 @@
         <v>2086.975324609999</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19318,7 +17678,7 @@
         <v>2100.244524609999</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19351,7 +17711,7 @@
         <v>2071.244524609999</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19384,7 +17744,7 @@
         <v>2071.244524609999</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -31440,6 +29800,6 @@
       <c r="M850" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BHP.xlsx
+++ b/BackTest/2019-10-26 BackTest BHP.xlsx
@@ -6828,9 +6828,11 @@
         <v>2230.7763219</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1189</v>
+      </c>
       <c r="J159" t="n">
         <v>1175</v>
       </c>
@@ -7803,7 +7805,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
@@ -7811,15 +7813,13 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.069893617021277</v>
-      </c>
-      <c r="M184" t="n">
-        <v>1.002553191489362</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7844,11 +7844,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7880,8 +7886,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7913,8 +7925,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7946,8 +7964,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7979,8 +8003,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -8009,11 +8039,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8042,11 +8078,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8075,11 +8117,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +8156,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +8195,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8174,11 +8234,17 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +8273,17 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +8312,17 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8276,8 +8354,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8309,8 +8393,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8342,8 +8432,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8375,8 +8471,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8405,11 +8507,17 @@
         <v>590.9546471899997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8438,11 +8546,17 @@
         <v>585.6546471899998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8471,11 +8585,17 @@
         <v>591.5546471899997</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +8624,17 @@
         <v>600.5546471899997</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8537,11 +8663,17 @@
         <v>607.0546471899997</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8570,11 +8702,17 @@
         <v>604.5546471899997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8606,8 +8744,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8639,8 +8783,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8672,8 +8822,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8705,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8738,8 +8900,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8771,8 +8939,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8804,8 +8978,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8837,8 +9017,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8870,8 +9056,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8903,8 +9095,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8936,8 +9134,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8969,8 +9173,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9002,8 +9212,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9035,8 +9251,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9068,8 +9290,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9101,8 +9329,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9134,8 +9368,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9167,8 +9407,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9200,8 +9446,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9233,8 +9485,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9266,8 +9524,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9299,8 +9563,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9332,8 +9602,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9365,8 +9641,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9398,8 +9680,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9431,8 +9719,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9464,8 +9758,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9497,8 +9797,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9530,8 +9836,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9563,8 +9875,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9596,8 +9914,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9629,8 +9953,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9662,8 +9992,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9695,8 +10031,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9728,8 +10070,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9761,8 +10109,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9794,8 +10148,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9827,8 +10187,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +10226,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9893,8 +10265,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9926,8 +10304,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9959,8 +10343,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9992,8 +10382,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10025,8 +10421,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10058,8 +10460,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10091,8 +10499,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10124,8 +10538,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10157,8 +10577,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10190,8 +10616,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10223,8 +10655,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10256,8 +10694,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10289,8 +10733,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10322,8 +10772,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10355,8 +10811,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10388,8 +10850,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10421,8 +10889,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10454,8 +10928,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10487,8 +10967,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10520,8 +11006,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10553,8 +11045,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10586,8 +11084,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10619,8 +11123,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10652,8 +11162,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10685,8 +11201,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10718,8 +11240,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10751,8 +11279,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10784,8 +11318,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +11357,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10850,8 +11396,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10883,8 +11435,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10916,8 +11474,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10949,8 +11513,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10982,8 +11552,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11015,8 +11591,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11048,8 +11630,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11081,8 +11669,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11114,8 +11708,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11147,8 +11747,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11180,8 +11786,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11213,8 +11825,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11246,8 +11864,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11279,8 +11903,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11312,8 +11942,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11345,8 +11981,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11378,8 +12020,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11411,8 +12059,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11444,8 +12098,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11477,8 +12137,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11510,8 +12176,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11543,8 +12215,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11576,8 +12254,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11609,8 +12293,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11642,8 +12332,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11675,8 +12371,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11708,8 +12410,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11741,8 +12449,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11774,8 +12488,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11807,8 +12527,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11840,8 +12566,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11873,8 +12605,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11906,8 +12644,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11939,8 +12683,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12722,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12005,8 +12761,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12038,8 +12800,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12071,8 +12839,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12104,8 +12878,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12137,8 +12917,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12170,8 +12956,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12203,8 +12995,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12236,8 +13034,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +13073,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12302,8 +13112,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12335,8 +13151,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12368,8 +13190,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12401,8 +13229,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12434,8 +13268,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12467,8 +13307,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12500,8 +13346,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12533,8 +13385,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12566,8 +13424,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12599,8 +13463,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12632,8 +13502,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12665,8 +13541,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12698,8 +13580,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12731,8 +13619,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12764,8 +13658,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12797,8 +13697,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12830,8 +13736,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12863,8 +13775,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12896,8 +13814,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12929,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12962,8 +13892,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12995,8 +13931,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13028,8 +13970,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13061,8 +14009,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13094,8 +14048,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13127,8 +14087,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13160,8 +14126,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13193,8 +14165,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13226,8 +14204,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13259,8 +14243,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13292,8 +14282,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13325,8 +14321,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13358,8 +14360,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13391,8 +14399,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13424,8 +14438,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13457,8 +14477,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13490,8 +14516,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13523,8 +14555,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13556,8 +14594,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13589,8 +14633,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13622,8 +14672,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13655,8 +14711,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13688,8 +14750,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13721,8 +14789,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13754,8 +14828,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13787,8 +14867,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13820,8 +14906,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13853,8 +14945,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13886,8 +14984,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13919,8 +15023,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13952,8 +15062,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13985,8 +15101,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14018,8 +15140,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14051,8 +15179,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14084,8 +15218,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14117,8 +15257,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14150,8 +15296,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14183,8 +15335,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14216,8 +15374,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14249,8 +15413,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14282,8 +15452,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14315,8 +15491,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14348,8 +15530,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14381,8 +15569,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14414,8 +15608,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14447,8 +15647,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14480,8 +15686,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14513,8 +15725,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14546,8 +15764,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14579,8 +15803,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14612,8 +15842,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14645,8 +15881,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14678,8 +15920,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14711,8 +15959,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14744,8 +15998,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14777,8 +16037,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14810,8 +16076,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14843,8 +16115,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14876,8 +16154,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14909,8 +16193,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14942,8 +16232,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14975,8 +16271,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15008,8 +16310,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15041,8 +16349,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15074,8 +16388,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15107,8 +16427,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15140,8 +16466,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15173,8 +16505,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15206,8 +16544,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15239,8 +16583,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15272,8 +16622,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15305,8 +16661,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15338,8 +16700,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15371,8 +16739,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15404,8 +16778,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15437,8 +16817,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15470,8 +16856,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15503,8 +16895,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15536,8 +16934,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15569,8 +16973,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15602,8 +17012,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15635,8 +17051,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15668,8 +17090,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15701,8 +17129,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15734,8 +17168,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15767,8 +17207,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15800,8 +17246,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15833,8 +17285,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15866,8 +17324,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15899,8 +17363,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15932,8 +17402,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15965,8 +17441,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15998,8 +17480,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16031,8 +17519,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16064,8 +17558,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16094,15 +17594,23 @@
         <v>5341.24114719</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>1175</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
+        <v>1.162659574468085</v>
+      </c>
+      <c r="M435" t="n">
+        <v>1.002553191489362</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -16127,7 +17635,7 @@
         <v>2872.732047189999</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16160,7 +17668,7 @@
         <v>3298.986347189999</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16193,7 +17701,7 @@
         <v>3296.986347189999</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16226,7 +17734,7 @@
         <v>3296.986347189999</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16259,7 +17767,7 @@
         <v>3319.186347189999</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16292,7 +17800,7 @@
         <v>3313.686347189999</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16325,7 +17833,7 @@
         <v>3330.486347189999</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16358,7 +17866,7 @@
         <v>3447.448847189999</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16391,7 +17899,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16424,7 +17932,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16457,7 +17965,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16490,7 +17998,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16523,7 +18031,7 @@
         <v>3472.21644719</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16556,7 +18064,7 @@
         <v>3472.21644719</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16589,7 +18097,7 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16622,7 +18130,7 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16688,7 +18196,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16721,7 +18229,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16754,7 +18262,7 @@
         <v>2420.29604719</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16787,7 +18295,7 @@
         <v>2420.40714719</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16820,7 +18328,7 @@
         <v>2417.50714719</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16853,7 +18361,7 @@
         <v>2427.15014719</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16886,7 +18394,7 @@
         <v>2427.30614719</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16919,7 +18427,7 @@
         <v>2417.90614719</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16952,7 +18460,7 @@
         <v>2399.40614719</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16985,7 +18493,7 @@
         <v>2152.87534719</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
